--- a/Oyster/cultchmass/data/development/mass_progress.xlsx
+++ b/Oyster/cultchmass/data/development/mass_progress.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +448,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -456,6 +462,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -464,6 +476,12 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -472,6 +490,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -480,6 +504,12 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -488,6 +518,12 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -496,6 +532,12 @@
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43733</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -503,6 +545,12 @@
       </c>
       <c r="B9">
         <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43733</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,6 +960,12 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="C30" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43732</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -920,6 +974,12 @@
       <c r="B31">
         <v>2</v>
       </c>
+      <c r="C31" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43732</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -928,144 +988,252 @@
       <c r="B32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1097,39 +1265,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>43731</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1161,36 +1353,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65">
         <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43732</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43733</v>
       </c>
     </row>
   </sheetData>
